--- a/assets/slides/acct3210/S2/Problem1.xlsx
+++ b/assets/slides/acct3210/S2/Problem1.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CDD828-8C7E-4F4A-A6EC-28DA87789C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8675A985-2942-6446-B41F-F086A33A52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="20620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="30">
   <si>
     <t>Firm 1</t>
   </si>
@@ -115,12 +120,21 @@
   <si>
     <t>A 3D scatter plot in Excel allows you to visualize the relationship between three variables. The chart will show the data as a set of points in 3D space, with each point representing a single data point. You can adjust the data and chart as needed to match your specific requirements.</t>
   </si>
+  <si>
+    <t>We will come back to this in a moment (see the slides).</t>
+  </si>
+  <si>
+    <t>c(q1+1,q2)</t>
+  </si>
+  <si>
+    <t>c(q1, q2+1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,9 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -324,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,18 +493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="BN29" sqref="BN29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -530,13 +547,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
+      <c r="C4">
+        <f>10*A4+5*B4</f>
+        <v>1250</v>
+      </c>
       <c r="R4" t="s">
         <v>9</v>
       </c>
@@ -550,13 +571,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C9" si="0">10*A5+5*B5</f>
+        <v>850</v>
+      </c>
       <c r="S5" t="s">
         <v>9</v>
       </c>
@@ -570,13 +595,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6">
         <v>50</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
       <c r="S6" t="s">
         <v>9</v>
       </c>
@@ -590,13 +619,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
       <c r="S7" t="s">
         <v>9</v>
       </c>
@@ -610,13 +643,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
       <c r="S8" t="s">
         <v>9</v>
       </c>
@@ -630,13 +667,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
         <v>70</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
       <c r="S9" t="s">
         <v>9</v>
       </c>
@@ -650,12 +691,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -669,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -698,60 +739,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:66">
+      <c r="C14">
+        <f>6*A14+A14^2+8*B14 + B14^2</f>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60</v>
       </c>
       <c r="B15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:66">
+      <c r="C15">
+        <f t="shared" ref="C15:C19" si="1">6*A15+A15^2+8*B15 + B15^2</f>
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
       <c r="B16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
       <c r="B19">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -765,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -794,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -802,7 +867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>60</v>
       </c>
@@ -810,7 +875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -818,7 +883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -826,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -834,7 +899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -851,18 +916,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89449C03-CF33-486E-A51C-66C1EF0AA0E2}">
   <dimension ref="A1:BN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E9"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -876,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -905,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -916,6 +981,14 @@
         <f>10*A4+5*B4</f>
         <v>1250</v>
       </c>
+      <c r="D4">
+        <f>(10*A4)/A4</f>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>(5*B4)/B4</f>
+        <v>5</v>
+      </c>
       <c r="R4" t="s">
         <v>9</v>
       </c>
@@ -929,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -940,6 +1013,14 @@
         <f t="shared" ref="C5:C9" si="0">10*A5+5*B5</f>
         <v>850</v>
       </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="1">(10*A5)/A5</f>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="2">(5*B5)/B5</f>
+        <v>5</v>
+      </c>
       <c r="S5" t="s">
         <v>9</v>
       </c>
@@ -953,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -964,6 +1045,14 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="S6" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -988,6 +1077,14 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="S7" t="s">
         <v>9</v>
       </c>
@@ -1001,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1012,6 +1109,14 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="S8" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1036,6 +1141,14 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="S9" t="s">
         <v>9</v>
       </c>
@@ -1049,12 +1162,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1108,8 +1221,16 @@
         <f>6*A14 + A14^2 + 8*B14+B14^2</f>
         <v>13500</v>
       </c>
-    </row>
-    <row r="15" spans="1:66">
+      <c r="D14">
+        <f>(6*A14+A14^2)/A14</f>
+        <v>106</v>
+      </c>
+      <c r="E14">
+        <f>(8*B14+B14^2)/B14</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60</v>
       </c>
@@ -1117,11 +1238,19 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C19" si="1">6*A15 + A15^2 + 8*B15+B15^2</f>
+        <f t="shared" ref="C15:C19" si="3">6*A15 + A15^2 + 8*B15+B15^2</f>
         <v>6860</v>
       </c>
-    </row>
-    <row r="16" spans="1:66">
+      <c r="D15">
+        <f t="shared" ref="D15:D19" si="4">(6*A15+A15^2)/A15</f>
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E19" si="5">(8*B15+B15^2)/B15</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -1129,11 +1258,19 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4740</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1141,11 +1278,19 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -1153,11 +1298,19 @@
         <v>50</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3980</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1165,16 +1318,24 @@
         <v>70</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6540</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1225,11 +1386,11 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>7*A24+9 *B24 + A24*B24</f>
+        <f t="shared" ref="C24:C29" si="6">7*A24+9 *B24 + A24*B24</f>
         <v>6150</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>60</v>
       </c>
@@ -1237,11 +1398,11 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <f>7*A25+9 *B25 + A25*B25</f>
+        <f t="shared" si="6"/>
         <v>3870</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -1249,11 +1410,11 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <f>7*A26+9 *B26 + A26*B26</f>
+        <f t="shared" si="6"/>
         <v>2730</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1261,11 +1422,11 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f>7*A27+9 *B27 + A27*B27</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -1273,11 +1434,11 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <f>7*A28+9 *B28 + A28*B28</f>
+        <f t="shared" si="6"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1285,7 +1446,7 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <f>7*A29+9 *B29 + A29*B29</f>
+        <f t="shared" si="6"/>
         <v>2940</v>
       </c>
     </row>
@@ -1296,20 +1457,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD1A1B7-9A37-478A-99AC-862B907F2BD2}">
-  <dimension ref="A1:BN29"/>
+  <dimension ref="A1:BN32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1371,6 +1532,14 @@
         <f>B4*5/B4</f>
         <v>5</v>
       </c>
+      <c r="F4">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="R4" t="s">
         <v>9</v>
       </c>
@@ -1384,7 +1553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1403,6 +1572,14 @@
         <f t="shared" ref="E5:E9" si="2">B5*5/B5</f>
         <v>5</v>
       </c>
+      <c r="F5">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="S5" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1435,6 +1612,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="F6">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="S6" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1467,6 +1652,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="F7">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="S7" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1499,6 +1692,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="F8">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="S8" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1531,6 +1732,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="F9">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="S9" t="s">
         <v>9</v>
       </c>
@@ -1544,12 +1753,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1611,8 +1820,16 @@
         <f>( 8*$B14+$B14^2)/B14</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:66">
+      <c r="F14">
+        <f>6+2*A14</f>
+        <v>206</v>
+      </c>
+      <c r="G14">
+        <f>8+2*B14</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60</v>
       </c>
@@ -1620,7 +1837,7 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="3">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
+        <f t="shared" ref="C15:C19" si="3">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
         <v>6860</v>
       </c>
       <c r="D15">
@@ -1631,8 +1848,16 @@
         <f t="shared" ref="E15:E19" si="5">( 8*$B15+$B15^2)/B15</f>
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:66">
+      <c r="F15">
+        <f t="shared" ref="F15:F19" si="6">6+2*A15</f>
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G19" si="7">8+2*B15</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -1651,8 +1876,16 @@
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1671,8 +1904,16 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -1691,8 +1932,16 @@
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1711,13 +1960,21 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1768,7 +2025,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>7*A24+9 *B24 + A24*B24</f>
+        <f t="shared" ref="C24:C29" si="8">7*A24+9 *B24 + A24*B24</f>
         <v>6150</v>
       </c>
       <c r="D24" t="s">
@@ -1778,7 +2035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>60</v>
       </c>
@@ -1786,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <f>7*A25+9 *B25 + A25*B25</f>
+        <f t="shared" si="8"/>
         <v>3870</v>
       </c>
       <c r="D25" t="s">
@@ -1796,7 +2053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -1804,7 +2061,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <f>7*A26+9 *B26 + A26*B26</f>
+        <f t="shared" si="8"/>
         <v>2730</v>
       </c>
       <c r="D26" t="s">
@@ -1814,7 +2071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1822,7 +2079,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f>7*A27+9 *B27 + A27*B27</f>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="D27" t="s">
@@ -1832,7 +2089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -1840,7 +2097,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <f>7*A28+9 *B28 + A28*B28</f>
+        <f t="shared" si="8"/>
         <v>2160</v>
       </c>
       <c r="D28" t="s">
@@ -1850,7 +2107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -1858,7 +2115,7 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <f>7*A29+9 *B29 + A29*B29</f>
+        <f t="shared" si="8"/>
         <v>2940</v>
       </c>
       <c r="D29" t="s">
@@ -1868,27 +2125,44 @@
         <v>12</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D30:E32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3593482B-B9BF-4AF7-B177-79BA1D895DF1}">
-  <dimension ref="A1:BN29"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="F24:G24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1898,11 +2172,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1925,13 +2199,19 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1958,20 +2238,36 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66">
+      <c r="H4">
+        <f>10*(A4+1)+5*B4</f>
+        <v>1260</v>
+      </c>
+      <c r="I4">
+        <f>10*A4+5*(B4+1)</f>
+        <v>1255</v>
+      </c>
+      <c r="J4">
+        <f>H4-$C4</f>
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <f>I4-$C4</f>
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -1998,20 +2294,36 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66">
+      <c r="H5">
+        <f t="shared" ref="H5:H9" si="3">10*(A5+1)+5*B5</f>
+        <v>860</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I9" si="4">10*A5+5*(B5+1)</f>
+        <v>855</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J9" si="5">H5-$C5</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>I5-$C5</f>
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -2038,20 +2350,36 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66">
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>655</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K5:K9" si="6">I6-$C6</f>
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -2078,20 +2406,36 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66">
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>355</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -2118,20 +2462,36 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66">
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>555</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -2158,25 +2518,41 @@
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="S9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66">
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>655</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2186,11 +2562,11 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2212,14 +2588,14 @@
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66">
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -2247,7 +2623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60</v>
       </c>
@@ -2255,27 +2631,27 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="3">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
+        <f t="shared" ref="C15:C19" si="7">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
         <v>6860</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D19" si="4">(6*$A15 +$A15^2 )/A15</f>
+        <f t="shared" ref="D15:D19" si="8">(6*$A15 +$A15^2 )/A15</f>
         <v>66</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E19" si="5">( 8*$B15+$B15^2)/B15</f>
+        <f t="shared" ref="E15:E19" si="9">( 8*$B15+$B15^2)/B15</f>
         <v>58</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="6">6+2*A15</f>
+        <f t="shared" ref="F15:F19" si="10">6+2*A15</f>
         <v>126</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G19" si="7">8+2*B15</f>
+        <f t="shared" ref="G15:G19" si="11">8+2*B15</f>
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -2283,83 +2659,83 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4740</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="F16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="G16">
+        <f t="shared" si="11"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="7"/>
+        <v>1260</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="7"/>
+        <v>3980</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>1260</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>3980</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
@@ -2367,32 +2743,32 @@
         <v>70</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6540</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="F19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2402,11 +2778,11 @@
       <c r="F22" t="s">
         <v>3</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2428,14 +2804,14 @@
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -2443,7 +2819,7 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <f>7*A24+9 *B24 + A24*B24</f>
+        <f t="shared" ref="C24:C29" si="12">7*A24+9 *B24 + A24*B24</f>
         <v>6150</v>
       </c>
       <c r="D24" t="s">
@@ -2461,7 +2837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>60</v>
       </c>
@@ -2469,7 +2845,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <f>7*A25+9 *B25 + A25*B25</f>
+        <f t="shared" si="12"/>
         <v>3870</v>
       </c>
       <c r="D25" t="s">
@@ -2479,15 +2855,15 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F29" si="8">7+B25</f>
+        <f t="shared" ref="F25:F29" si="13">7+B25</f>
         <v>57</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:G29" si="9">9+A25</f>
+        <f t="shared" ref="G25:G29" si="14">9+A25</f>
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -2495,7 +2871,7 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <f>7*A26+9 *B26 + A26*B26</f>
+        <f t="shared" si="12"/>
         <v>2730</v>
       </c>
       <c r="D26" t="s">
@@ -2505,15 +2881,15 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="G26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -2521,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f>7*A27+9 *B27 + A27*B27</f>
+        <f t="shared" si="12"/>
         <v>600</v>
       </c>
       <c r="D27" t="s">
@@ -2531,15 +2907,15 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="G27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2547,7 +2923,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <f>7*A28+9 *B28 + A28*B28</f>
+        <f t="shared" si="12"/>
         <v>2160</v>
       </c>
       <c r="D28" t="s">
@@ -2557,15 +2933,15 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="G28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2573,7 +2949,7 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <f>7*A29+9 *B29 + A29*B29</f>
+        <f t="shared" si="12"/>
         <v>2940</v>
       </c>
       <c r="D29" t="s">
@@ -2583,11 +2959,11 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="G29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
     </row>
@@ -2600,21 +2976,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB09CC1-E92B-4B2C-91D2-C667243ABA0D}">
   <dimension ref="A1:BP29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:K24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2628,7 +3004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2663,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2719,7 +3095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -2775,7 +3151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -2831,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -2887,7 +3263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -2943,7 +3319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -2999,12 +3375,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3018,7 +3394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -3097,7 +3473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60</v>
       </c>
@@ -3105,7 +3481,7 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="7">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
+        <f t="shared" ref="C15:C19" si="7">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
         <v>6860</v>
       </c>
       <c r="D15">
@@ -3141,7 +3517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -3185,7 +3561,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -3229,7 +3605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -3273,7 +3649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
@@ -3317,12 +3693,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3336,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3371,7 +3747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -3413,7 +3789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>60</v>
       </c>
@@ -3455,7 +3831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -3497,7 +3873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -3539,7 +3915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -3581,7 +3957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -3632,21 +4008,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98565022-A28B-466F-A09B-65307A0CC389}">
   <dimension ref="A1:BP45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3660,7 +4036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3695,7 +4071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -3748,7 +4124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -3801,7 +4177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -3854,7 +4230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -3907,7 +4283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -3960,7 +4336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
@@ -4013,12 +4389,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4032,7 +4408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -4067,7 +4443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -4111,7 +4487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>60</v>
       </c>
@@ -4119,7 +4495,7 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="7">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
+        <f t="shared" ref="C15:C19" si="7">6*$A15 +$A15^2 + 8*$B15+$B15^2</f>
         <v>6860</v>
       </c>
       <c r="D15">
@@ -4155,7 +4531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40</v>
       </c>
@@ -4199,7 +4575,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -4243,7 +4619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -4287,7 +4663,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
@@ -4331,12 +4707,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4350,7 +4726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -4427,7 +4803,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>60</v>
       </c>
@@ -4469,7 +4845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -4511,7 +4887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -4553,7 +4929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -4595,7 +4971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -4637,62 +5013,62 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>26</v>
       </c>
